--- a/biology/Zoologie/Coras_angularis/Coras_angularis.xlsx
+++ b/biology/Zoologie/Coras_angularis/Coras_angularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coras angularis est une espèce d'araignées aranéomorphes de la famille des Agelenidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coras angularis est une espèce d'araignées aranéomorphes de la famille des Agelenidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Maryland et en Floride et au Canada en Ontario[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre aux États-Unis au Maryland et en Floride et au Canada en Ontario,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle holotype mesure 8,55 mm[3].
-La femelle décrite son le nom Coras crescentis mesure 9,75 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle holotype mesure 8,55 mm.
+La femelle décrite son le nom Coras crescentis mesure 9,75 mm.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sur la base de son holotype un mâle découvert dans le parc d'État de Swallow Falls[3]. L'espèce Coras crescentis décrite sur la base de son holotype une femelle découverte dans le parc d'État du mont Dans a été placée en synonymie avec Coras angularis par Muma en 1946[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sur la base de son holotype un mâle découvert dans le parc d'État de Swallow Falls. L'espèce Coras crescentis décrite sur la base de son holotype une femelle découverte dans le parc d'État du mont Dans a été placée en synonymie avec Coras angularis par Muma en 1946.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Muma, 1944 : A report on Maryland spiders. American Museum novitates, no 1257, p. 1-14 (texte intégral).</t>
         </is>
